--- a/Proyecto_Final_GIAE/data/CAPITAL_NETO.xlsx
+++ b/Proyecto_Final_GIAE/data/CAPITAL_NETO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/greciai.arellanoe./Documents/Finance_Seminar/Proyecto_Final_GIAE/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA04678D-8909-5548-9382-7A181E41B2CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{247A7408-5BCC-914D-89F2-BD4500849FA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9600" yWindow="-21100" windowWidth="23400" windowHeight="21060" xr2:uid="{E94AF4E7-7DF3-43F2-B566-0FECD118B9E8}"/>
   </bookViews>
@@ -746,7 +746,7 @@
       <scheme val="major"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -798,6 +798,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -953,7 +959,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1091,11 +1097,12 @@
     </xf>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="5" fillId="8" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="6" fillId="9" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="8" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="6" fillId="9" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Millares" xfId="5" builtinId="3"/>
@@ -1435,8 +1442,8 @@
   </sheetPr>
   <dimension ref="B2:J125"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A94" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F105" sqref="F105"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A101" zoomScale="109" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F106" sqref="F106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1452,35 +1459,35 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="21" x14ac:dyDescent="0.2">
-      <c r="B2" s="83" t="str">
+      <c r="B2" s="85" t="str">
         <f>"DETERMINACION DEL CAPITAL NETO CORRESPODIENTE A : "</f>
         <v xml:space="preserve">DETERMINACION DEL CAPITAL NETO CORRESPODIENTE A : </v>
       </c>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
     </row>
     <row r="3" spans="2:10" ht="21" x14ac:dyDescent="0.2">
-      <c r="B3" s="83" t="s">
+      <c r="B3" s="85" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="83"/>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
     </row>
     <row r="4" spans="2:10" ht="21" x14ac:dyDescent="0.2">
-      <c r="B4" s="83" t="s">
+      <c r="B4" s="85" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
+      <c r="C4" s="85"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="85"/>
     </row>
     <row r="6" spans="2:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="9"/>
@@ -1566,11 +1573,11 @@
       </c>
       <c r="E12" s="50"/>
       <c r="F12" s="41">
-        <f t="shared" ref="F12:G13" si="0">+F22</f>
+        <f>+F22</f>
         <v>23711.072278561784</v>
       </c>
       <c r="G12" s="41">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="F12:G13" si="0">+G22</f>
         <v>0</v>
       </c>
     </row>
@@ -1581,7 +1588,7 @@
         <v>190</v>
       </c>
       <c r="F13" s="41">
-        <f t="shared" si="0"/>
+        <f>+F23</f>
         <v>21197.792278561785</v>
       </c>
       <c r="G13" s="41">
@@ -3375,7 +3382,7 @@
       <c r="E104" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="F104" s="84">
+      <c r="F104" s="83">
         <f>IF(F17&gt;=0.1,F103,0.5*F23)</f>
         <v>2513.2800000000002</v>
       </c>
@@ -3392,8 +3399,8 @@
       <c r="D105" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="E105" s="4"/>
-      <c r="F105" s="85">
+      <c r="E105" s="86"/>
+      <c r="F105" s="84">
         <f>+F106</f>
         <v>0</v>
       </c>
@@ -3588,8 +3595,8 @@
       <c r="D115" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="E115" s="4"/>
-      <c r="F115" s="85">
+      <c r="E115" s="86"/>
+      <c r="F115" s="84">
         <f>SUMIFS(datos!$C:$C,datos!$B:$B,plantilla!$C115)</f>
         <v>0</v>
       </c>
@@ -3823,8 +3830,8 @@
   </sheetPr>
   <dimension ref="A1:C69"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B67" sqref="B67"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A69" sqref="A1:C69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
